--- a/data/Codebook_reg.xlsx
+++ b/data/Codebook_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobschauer/Documents/courses/Spring 2020/STAT 301-3/loans_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JunhuaTan/Documents/GitHub/STAT301-3-regression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB50890-F48A-7B44-BD6B-F0AAABB64668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F15A71-1F32-FB4A-8835-D9E1C02611CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34220" yWindow="-560" windowWidth="33100" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -1279,9 +1279,9 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="284" zoomScaleNormal="284" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="284" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/Codebook_reg.xlsx
+++ b/data/Codebook_reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JunhuaTan/Documents/GitHub/STAT301-3-regression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F15A71-1F32-FB4A-8835-D9E1C02611CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599F1BA-40C7-374B-8166-F483824072CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,7 +1281,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="284" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
